--- a/SampleApp/模版/03读取excel内容/Sample06.xlsx
+++ b/SampleApp/模版/03读取excel内容/Sample06.xlsx
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>互动娱乐事业部-公共棋牌业务部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互动娱乐事业部-系统运维部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审计部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +79,14 @@
   </si>
   <si>
     <t>部门Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互娱-棋牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互娱-运维</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +316,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -598,18 +598,18 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -641,22 +641,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5">
         <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -664,20 +664,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5">
         <v>1002</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -685,22 +685,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>1003</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
